--- a/rnaSample/rnaSample_3357.xlsx
+++ b/rnaSample/rnaSample_3357.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,12 +95,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +155,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,7 +179,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G29"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -193,7 +187,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/rnaSample/rnaSample_3357.xlsx
+++ b/rnaSample/rnaSample_3357.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519013D-4EC9-9E40-9EE5-93FCBFDE2934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07043338-1733-5A48-A049-F6CE9D41BB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,7 +488,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -497,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
@@ -514,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
@@ -534,22 +534,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
@@ -566,7 +566,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -575,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -592,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -601,7 +601,7 @@
         <v>11</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -612,22 +612,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -696,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -705,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -716,22 +716,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
@@ -748,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>9</v>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -852,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -965,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>9</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1138,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -1147,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>
@@ -1164,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -1173,38 +1173,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="3" t="s">
         <v>12</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_3357.xlsx
+++ b/rnaSample/rnaSample_3357.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07043338-1733-5A48-A049-F6CE9D41BB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E41F78-E21B-3543-B7E5-857AFBD1B010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -586,22 +586,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>9</v>
@@ -618,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>9</v>
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -653,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
@@ -690,22 +690,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
@@ -722,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -731,7 +731,7 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>9</v>
@@ -748,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -757,7 +757,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>9</v>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -783,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>9</v>
@@ -826,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
@@ -852,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -913,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="F18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="F19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>9</v>
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -965,7 +965,7 @@
         <v>11</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>9</v>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -991,7 +991,7 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="F22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -1043,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>9</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>9</v>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -1121,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>9</v>
@@ -1138,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -1147,38 +1147,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>28</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
